--- a/qa/QTP/Test005.xlsx
+++ b/qa/QTP/Test005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19020" windowHeight="11895"/>
+    <workbookView xWindow="1875" yWindow="1665" windowWidth="25140" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="TST001" sheetId="1" r:id="rId1"/>
@@ -174,12 +174,6 @@
     <t>Test002</t>
   </si>
   <si>
-    <t>Group Name=SUBJECTS, Description=subjects, File=L:\QA\CAI2\Studies\QA_Test_Study\Annotation_Groups\Subject_data_small_group.csv</t>
-  </si>
-  <si>
-    <t>Input filename=L:\QA\CAI2\Studies\QA_Test_Study\Subject_Data\Subject_data_small.csv and click Open</t>
-  </si>
-  <si>
     <t>Under Genomic Data Sources section, click Add new Button</t>
   </si>
   <si>
@@ -201,25 +195,31 @@
     <t>Wait and repeat Step 22 until Status is either "Deployed", "Not Deployed" or "Error"</t>
   </si>
   <si>
-    <t>Input data from L:\QA\CAI2\Studies\QA_Test_Study\Genomic_Data\Test_caArray_Connections\caArray-Local_data_source.xls and click save</t>
-  </si>
-  <si>
-    <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "admin-00013"; and wait for Status="Not Mapped"</t>
-  </si>
-  <si>
-    <t>Input data from L:\QA\CAI2\Studies\QA_Test_Study\Genomic_Data\Test_caArray_Connections\caArray-Local_data_source.xls and click Map Samples</t>
-  </si>
-  <si>
-    <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "admin-00013"; and wait for Status="Ready to be loaded"</t>
-  </si>
-  <si>
     <t>Look for row with Study Name=Test005 {timestamp}</t>
   </si>
   <si>
-    <t>Verify CAI can connect with caArray-Local (cbwapp-p1001)</t>
-  </si>
-  <si>
     <t>Study Name=Test005 {timestamp}, Study Description=Test CAI connection to caArray-Local</t>
+  </si>
+  <si>
+    <t>Verify CAI can connect with caArray-Local (ncicbcaqa-1)</t>
+  </si>
+  <si>
+    <t>Group Name=SUBJECTS, Description=subjects, File= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/QA_Test_Study/Annotation_Groups/Subject_data_small_group.csv</t>
+  </si>
+  <si>
+    <t>Input filename= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/QA_Test_Study/Subject_Data/Subject_data_small.csv and click Open</t>
+  </si>
+  <si>
+    <t>Input data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/QA_Test_Study/Genomic_Data/Test_caArray_Connections/caArray-Local_data_source.xls and click save</t>
+  </si>
+  <si>
+    <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "EXP-8"; and wait for Status="Not Mapped"</t>
+  </si>
+  <si>
+    <t>Input data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/QA_Test_Study/Genomic_Data/Test_caArray_Connections/caArray-Local_data_source.xls and click Map Samples</t>
+  </si>
+  <si>
+    <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "EXP-8"; and wait for Status="Ready to be loaded"</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,13 +621,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2">
-        <v>40485</v>
+        <v>40574</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -813,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="6:8">
@@ -824,10 +824,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="6:8">
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -846,10 +846,10 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="6:8">
@@ -868,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
@@ -890,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
